--- a/Output/AllModels_final_with_plan_and_barriers_INTERACTION12000.xlsx
+++ b/Output/AllModels_final_with_plan_and_barriers_INTERACTION12000.xlsx
@@ -1,1159 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437B4DF-88C9-4B19-801A-758974C43F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22490" yWindow="870" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Zero Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.79,  6.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.01***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[42.13, 59.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.06***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[108.16, 139.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.58,  4.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,     1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.41,  2.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04,  0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.36,     0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.12,  1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.82,     2.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.39,  2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.78,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.87,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.16,  0.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.40,    63.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  5.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.90,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.18,  0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.29,    13.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.77,  2.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.96,   1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06,  0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.99,     2.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.13,  2.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.96,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.02,  0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.45,     1.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.55,  1.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.87,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.11,  0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.37,     7.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,  2.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.13,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.94,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.25,  0.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.34,     3.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily facilitators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.68,  1.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.06,  1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05,  0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.30,     3.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.27,  4.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.75,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.69,   1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.47,  0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24,   116.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.38,  5.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.61,   1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.18,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.43,   277.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.29,  1.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.77,   1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.67,  0.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.54, 15556.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.21,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.91,  0.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   144.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.20,  8.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,  2.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.69,   1.82]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.61,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02,   178.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.22,  9.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,  3.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.78,   2.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.90,  0.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,     1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.30,  0.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.50***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.65, -0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07,     5.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean facilitators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.89,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.18,  0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.18,     3.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persuasion_self_cw:barriers_self_cw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.93,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08,  0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.38,     1.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers_self_cw:pressure_self_cw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.09,  1.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.75,  1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.81,   1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.47,  0.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22,    13.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers_self_cw:pushing_self_cw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.14,  6.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.95,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02,  0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.27,     1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persuasion_self_cw:facilitators_self_cw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  2.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.95,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06,  0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,     1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressure_self_cw:facilitators_self_cw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.18,  4.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.69,   1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.24,  0.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22,    45.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushing_self_cw:facilitators_self_cw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.77,  3.92]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.96,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08,  0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.32,     2.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.23, 2.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25, 0.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.26, 0.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49, 0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.64, 4.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.06, 1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09, 1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 2.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.61, 4.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 4.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(barriers_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.10, 2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.06, 0.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 2.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.84, 1.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.19, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22, 2.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(persuasion_self_cw:barriers_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 1.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 1.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(barriers_self_cw:pressure_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 2.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 3.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(barriers_self_cw:pushing_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.38, 2.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 1.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(persuasion_self_cw:facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.11, 1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(pressure_self_cw:facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10, 4.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.34, 5.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(pushing_self_cw:facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 2.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.06, 2.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59, 0.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.51, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.82, 0.88]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="378">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>Hurdle Component</t>
+  </si>
+  <si>
+    <t>Non-Zero Component</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t>95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t>Est. mood_gauss</t>
+  </si>
+  <si>
+    <t>95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t>OR is_reactance</t>
+  </si>
+  <si>
+    <t>95% CI is_reactance</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>3.41***</t>
+  </si>
+  <si>
+    <t>[ 1.79,  6.47]</t>
+  </si>
+  <si>
+    <t>50.01***</t>
+  </si>
+  <si>
+    <t>[42.13, 59.09]</t>
+  </si>
+  <si>
+    <t>123.06***</t>
+  </si>
+  <si>
+    <t>[108.16, 139.27]</t>
+  </si>
+  <si>
+    <t>3.79***</t>
+  </si>
+  <si>
+    <t>[ 3.58,  4.01]</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>[0.12,     1.25]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.87***</t>
+  </si>
+  <si>
+    <t>[ 1.41,  2.61]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.06]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.06]</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.04,  0.06]</t>
+  </si>
+  <si>
+    <t>0.60*</t>
+  </si>
+  <si>
+    <t>[0.36,     0.93]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.40**</t>
+  </si>
+  <si>
+    <t>[ 1.12,  1.83]</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.07]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.07]</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>[0.82,     2.51]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[ 0.39,  2.09]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[ 0.78,  1.05]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[  0.87,   1.07]</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.16,  0.12]</t>
+  </si>
+  <si>
+    <t>6.78*</t>
+  </si>
+  <si>
+    <t>[1.40,    63.18]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>[ 0.85,  5.72]</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.06]</t>
+  </si>
+  <si>
+    <t>[  0.90,   1.05]</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>[-0.18,  0.07]</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>[0.29,    13.36]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>[ 0.77,  2.01]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t>[  0.96,   1.08]</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.06,  0.10]</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>[0.99,     2.98]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.60**</t>
+  </si>
+  <si>
+    <t>[ 1.13,  2.54]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>[  0.96,   1.05]</t>
+  </si>
+  <si>
+    <t>0.09*</t>
+  </si>
+  <si>
+    <t>[ 0.02,  0.16]</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.45,     1.73]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>[ 0.55,  1.51]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.09]</t>
+  </si>
+  <si>
+    <t>[  0.87,   1.06]</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.11,  0.41]</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>[0.37,     7.62]</t>
+  </si>
+  <si>
+    <t>Own actionplan</t>
+  </si>
+  <si>
+    <t>Partner actionplan</t>
+  </si>
+  <si>
+    <t>Daily barriers</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>[ 0.64,  2.04]</t>
+  </si>
+  <si>
+    <t>1.26***</t>
+  </si>
+  <si>
+    <t>[ 1.13,  1.41]</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[  0.94,   1.07]</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>[-0.25,  0.01]</t>
+  </si>
+  <si>
+    <t>[0.34,     3.35]</t>
+  </si>
+  <si>
+    <t>Daily facilitators</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.68,  1.96]</t>
+  </si>
+  <si>
+    <t>1.19**</t>
+  </si>
+  <si>
+    <t>[ 1.06,  1.33]</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.10]</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>[ 0.05,  0.17]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[0.30,     3.40]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[ 0.27,  4.02]</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>[ 0.75,  1.48]</t>
+  </si>
+  <si>
+    <t>[  0.69,   1.40]</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>[-0.47,  0.72]</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>[0.24,   116.32]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>[ 0.38,  5.24]</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.32]</t>
+  </si>
+  <si>
+    <t>[  0.61,   1.23]</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>[-0.18,  1.00]</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>[0.43,   277.62]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[ 0.03,  1.11]</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[ 0.29,  1.58]</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[  0.77,   1.64]</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>[-0.67,  0.53]</t>
+  </si>
+  <si>
+    <t>59.85</t>
+  </si>
+  <si>
+    <t>[0.54, 15556.44]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[ 0.03,  1.17]</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[ 0.21,  1.15]</t>
+  </si>
+  <si>
+    <t>[  0.72,   1.49]</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.91,  0.28]</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>[0.00,   144.08]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[ 0.20,  8.70]</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>[ 0.84,  2.80]</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>[  0.69,   1.82]</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[-0.61,  1.08]</t>
+  </si>
+  <si>
+    <t>[0.02,   178.19]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>[ 0.22,  9.51]</t>
+  </si>
+  <si>
+    <t>[ 0.91,  3.01]</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>[  0.78,   2.05]</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>[-0.90,  0.79]</t>
+  </si>
+  <si>
+    <t>[0.00,     1.03]</t>
+  </si>
+  <si>
+    <t>Mean barriers</t>
+  </si>
+  <si>
+    <t>0.50**</t>
+  </si>
+  <si>
+    <t>[ 0.30,  0.83]</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.12]</t>
+  </si>
+  <si>
+    <t>0.80***</t>
+  </si>
+  <si>
+    <t>[  0.72,   0.89]</t>
+  </si>
+  <si>
+    <t>-0.50***</t>
+  </si>
+  <si>
+    <t>[-0.65, -0.34]</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>[0.07,     5.64]</t>
+  </si>
+  <si>
+    <t>Mean facilitators</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.80]</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.19]</t>
+  </si>
+  <si>
+    <t>[  0.89,   1.03]</t>
+  </si>
+  <si>
+    <t>0.29***</t>
+  </si>
+  <si>
+    <t>[ 0.18,  0.39]</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>[0.18,     3.15]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>1.00*</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>persuasion_self_cw:barriers_self_cw</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.63]</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.11]</t>
+  </si>
+  <si>
+    <t>[  0.93,   1.02]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.08,  0.07]</t>
+  </si>
+  <si>
+    <t>[0.38,     1.39]</t>
+  </si>
+  <si>
+    <t>barriers_self_cw:pressure_self_cw</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[ 0.09,  1.21]</t>
+  </si>
+  <si>
+    <t>[ 0.75,  1.20]</t>
+  </si>
+  <si>
+    <t>[  0.81,   1.14]</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>[-0.47,  0.20]</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>[0.22,    13.05]</t>
+  </si>
+  <si>
+    <t>barriers_self_cw:pushing_self_cw</t>
+  </si>
+  <si>
+    <t>2.50*</t>
+  </si>
+  <si>
+    <t>[ 1.14,  6.03]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.85,  1.05]</t>
+  </si>
+  <si>
+    <t>[  0.95,   1.09]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[-0.02,  0.18]</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>[0.27,     1.37]</t>
+  </si>
+  <si>
+    <t>persuasion_self_cw:facilitators_self_cw</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>[ 0.87,  2.10]</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.09]</t>
+  </si>
+  <si>
+    <t>[  0.95,   1.04]</t>
+  </si>
+  <si>
+    <t>[-0.06,  0.06]</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>[0.48,     1.56]</t>
+  </si>
+  <si>
+    <t>pressure_self_cw:facilitators_self_cw</t>
+  </si>
+  <si>
+    <t>[ 0.18,  4.87]</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.18]</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[  0.69,   1.14]</t>
+  </si>
+  <si>
+    <t>[-0.24,  0.31]</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>[0.22,    45.77]</t>
+  </si>
+  <si>
+    <t>pushing_self_cw:facilitators_self_cw</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>[ 0.77,  3.92]</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.04]</t>
+  </si>
+  <si>
+    <t>[  0.96,   1.09]</t>
+  </si>
+  <si>
+    <t>[-0.08,  0.13]</t>
+  </si>
+  <si>
+    <t>[0.32,     2.07]</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[1.23, 2.23]</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>[0.25, 0.43]</t>
+  </si>
+  <si>
+    <t>[0.26, 0.45]</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.49, 0.81]</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>[1.64, 4.08]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[0.01, 0.61]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.14]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.01, 0.09]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>[0.06, 1.45]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.03, 0.66]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.01, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.10]</t>
+  </si>
+  <si>
+    <t>[0.09, 1.54]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>[0.02, 2.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.33]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.20]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>[0.61, 4.75]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>[0.04, 2.37]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.12]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.00, 0.29]</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>[0.14, 4.52]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>[0.07, 1.53]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.20]</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>[0.03, 1.53]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>[0.03, 1.23]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.19]</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>[0.02, 1.45]</t>
+  </si>
+  <si>
+    <t>sd(barriers_self_cw)</t>
+  </si>
+  <si>
+    <t>[1.10, 2.08]</t>
+  </si>
+  <si>
+    <t>[0.14, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.06, 0.20]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.43]</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>[0.08, 2.66]</t>
+  </si>
+  <si>
+    <t>sd(facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>[0.84, 1.95]</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>[0.19, 0.39]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.16]</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>[0.22, 2.73]</t>
+  </si>
+  <si>
+    <t>sd(persuasion_self_cw:barriers_self_cw)</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>[0.05, 1.26]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.03, 1.61]</t>
+  </si>
+  <si>
+    <t>sd(barriers_self_cw:pressure_self_cw)</t>
+  </si>
+  <si>
+    <t>[0.03, 2.58]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.01, 0.42]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.31]</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>[0.08, 0.85]</t>
+  </si>
+  <si>
+    <t>[0.04, 3.40]</t>
+  </si>
+  <si>
+    <t>sd(barriers_self_cw:pushing_self_cw)</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>[0.38, 2.39]</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.05, 0.26]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.08, 1.94]</t>
+  </si>
+  <si>
+    <t>sd(persuasion_self_cw:facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>[0.11, 1.23]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>[0.02, 1.15]</t>
+  </si>
+  <si>
+    <t>sd(pressure_self_cw:facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>[0.10, 4.28]</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.02, 0.62]</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[0.01, 0.55]</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>[0.34, 5.20]</t>
+  </si>
+  <si>
+    <t>sd(pushing_self_cw:facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t>[0.08, 2.45]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.26]</t>
+  </si>
+  <si>
+    <t>[0.06, 2.36]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>[0.59, 0.65]</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>[0.51, 0.55]</t>
+  </si>
+  <si>
+    <t>[0.82, 0.88]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1167,24 +1174,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1196,20 +1209,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,20 +1243,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1517,62 +1562,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1594,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1664,43 +1724,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1727,15 +1787,15 @@
       <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1769,8 +1829,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1779,7 +1839,7 @@
       <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1804,11 +1864,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1839,8 +1899,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1867,15 +1927,15 @@
       <c r="I10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="12" t="s">
         <v>76</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1909,8 +1969,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1944,8 +2004,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="1"/>
@@ -1959,8 +2019,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="1"/>
@@ -1974,8 +2034,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2009,8 +2069,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2044,8 +2104,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="1"/>
@@ -2063,43 +2123,43 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2133,8 +2193,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2168,8 +2228,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2203,8 +2263,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2238,8 +2298,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2273,8 +2333,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2308,8 +2368,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2343,8 +2403,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2378,8 +2438,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B27" s="1"/>
@@ -2397,43 +2457,43 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2467,8 +2527,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2502,8 +2562,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2537,8 +2597,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2572,8 +2632,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2607,8 +2667,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2642,43 +2702,43 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2712,8 +2772,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2747,8 +2807,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2782,8 +2842,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
         <v>281</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2817,8 +2877,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
         <v>290</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2852,8 +2912,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
         <v>300</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2887,8 +2947,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
         <v>308</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2922,8 +2982,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="6" t="s">
         <v>314</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2957,8 +3017,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2992,8 +3052,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3027,8 +3087,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" s="6" t="s">
         <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3062,8 +3122,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" s="6" t="s">
         <v>342</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3097,8 +3157,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" s="6" t="s">
         <v>350</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3132,8 +3192,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" s="6" t="s">
         <v>356</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3167,8 +3227,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3202,43 +3262,43 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="11" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B52" s="4"/>
@@ -3264,63 +3324,63 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="7"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="7"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="7"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="7"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A51:K51"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A51:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_and_barriers_INTERACTION12000.xlsx
+++ b/Output/AllModels_final_with_plan_and_barriers_INTERACTION12000.xlsx
@@ -1,1166 +1,1159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437B4DF-88C9-4B19-801A-758974C43F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-22490" yWindow="870" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="378">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>Hurdle Component</t>
-  </si>
-  <si>
-    <t>Non-Zero Component</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t>95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t>Est. mood_gauss</t>
-  </si>
-  <si>
-    <t>95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t>OR is_reactance</t>
-  </si>
-  <si>
-    <t>95% CI is_reactance</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>3.41***</t>
-  </si>
-  <si>
-    <t>[ 1.79,  6.47]</t>
-  </si>
-  <si>
-    <t>50.01***</t>
-  </si>
-  <si>
-    <t>[42.13, 59.09]</t>
-  </si>
-  <si>
-    <t>123.06***</t>
-  </si>
-  <si>
-    <t>[108.16, 139.27]</t>
-  </si>
-  <si>
-    <t>3.79***</t>
-  </si>
-  <si>
-    <t>[ 3.58,  4.01]</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>[0.12,     1.25]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.87***</t>
-  </si>
-  <si>
-    <t>[ 1.41,  2.61]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.06]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[  0.98,   1.06]</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>[-0.04,  0.06]</t>
-  </si>
-  <si>
-    <t>0.60*</t>
-  </si>
-  <si>
-    <t>[0.36,     0.93]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.40**</t>
-  </si>
-  <si>
-    <t>[ 1.12,  1.83]</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.07]</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[  0.99,   1.07]</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>[0.82,     2.51]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[ 0.39,  2.09]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[ 0.78,  1.05]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[  0.87,   1.07]</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>[-0.16,  0.12]</t>
-  </si>
-  <si>
-    <t>6.78*</t>
-  </si>
-  <si>
-    <t>[1.40,    63.18]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>1.69</t>
-  </si>
-  <si>
-    <t>[ 0.85,  5.72]</t>
-  </si>
-  <si>
-    <t>[ 0.88,  1.06]</t>
-  </si>
-  <si>
-    <t>[  0.90,   1.05]</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>[-0.18,  0.07]</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>[0.29,    13.36]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>[ 0.77,  2.01]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t>[  0.96,   1.08]</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>[-0.06,  0.10]</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>[0.99,     2.98]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.60**</t>
-  </si>
-  <si>
-    <t>[ 1.13,  2.54]</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t>[  0.96,   1.05]</t>
-  </si>
-  <si>
-    <t>0.09*</t>
-  </si>
-  <si>
-    <t>[ 0.02,  0.16]</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>[0.45,     1.73]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>[ 0.55,  1.51]</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[ 0.83,  1.09]</t>
-  </si>
-  <si>
-    <t>[  0.87,   1.06]</t>
-  </si>
-  <si>
-    <t>0.26***</t>
-  </si>
-  <si>
-    <t>[ 0.11,  0.41]</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>[0.37,     7.62]</t>
-  </si>
-  <si>
-    <t>Own actionplan</t>
-  </si>
-  <si>
-    <t>Partner actionplan</t>
-  </si>
-  <si>
-    <t>Daily barriers</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>[ 0.64,  2.04]</t>
-  </si>
-  <si>
-    <t>1.26***</t>
-  </si>
-  <si>
-    <t>[ 1.13,  1.41]</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[  0.94,   1.07]</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>[-0.25,  0.01]</t>
-  </si>
-  <si>
-    <t>[0.34,     3.35]</t>
-  </si>
-  <si>
-    <t>Daily facilitators</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.68,  1.96]</t>
-  </si>
-  <si>
-    <t>1.19**</t>
-  </si>
-  <si>
-    <t>[ 1.06,  1.33]</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>[  0.99,   1.10]</t>
-  </si>
-  <si>
-    <t>0.11**</t>
-  </si>
-  <si>
-    <t>[ 0.05,  0.17]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[0.30,     3.40]</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>[ 0.27,  4.02]</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>[ 0.75,  1.48]</t>
-  </si>
-  <si>
-    <t>[  0.69,   1.40]</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>[-0.47,  0.72]</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>[0.24,   116.32]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>[ 0.38,  5.24]</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.32]</t>
-  </si>
-  <si>
-    <t>[  0.61,   1.23]</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>[-0.18,  1.00]</t>
-  </si>
-  <si>
-    <t>8.48</t>
-  </si>
-  <si>
-    <t>[0.43,   277.62]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>[ 0.03,  1.11]</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>[ 0.29,  1.58]</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>[  0.77,   1.64]</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>[-0.67,  0.53]</t>
-  </si>
-  <si>
-    <t>59.85</t>
-  </si>
-  <si>
-    <t>[0.54, 15556.44]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[ 0.03,  1.17]</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>[ 0.21,  1.15]</t>
-  </si>
-  <si>
-    <t>[  0.72,   1.49]</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>[-0.91,  0.28]</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>[0.00,   144.08]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>[ 0.20,  8.70]</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>[ 0.84,  2.80]</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>[  0.69,   1.82]</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>[-0.61,  1.08]</t>
-  </si>
-  <si>
-    <t>[0.02,   178.19]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>[ 0.22,  9.51]</t>
-  </si>
-  <si>
-    <t>[ 0.91,  3.01]</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>[  0.78,   2.05]</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>[-0.90,  0.79]</t>
-  </si>
-  <si>
-    <t>[0.00,     1.03]</t>
-  </si>
-  <si>
-    <t>Mean barriers</t>
-  </si>
-  <si>
-    <t>0.50**</t>
-  </si>
-  <si>
-    <t>[ 0.30,  0.83]</t>
-  </si>
-  <si>
-    <t>[ 0.83,  1.12]</t>
-  </si>
-  <si>
-    <t>0.80***</t>
-  </si>
-  <si>
-    <t>[  0.72,   0.89]</t>
-  </si>
-  <si>
-    <t>-0.50***</t>
-  </si>
-  <si>
-    <t>[-0.65, -0.34]</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>[0.07,     5.64]</t>
-  </si>
-  <si>
-    <t>Mean facilitators</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.80]</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.19]</t>
-  </si>
-  <si>
-    <t>[  0.89,   1.03]</t>
-  </si>
-  <si>
-    <t>0.29***</t>
-  </si>
-  <si>
-    <t>[ 0.18,  0.39]</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>[0.18,     3.15]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>1.00*</t>
-  </si>
-  <si>
-    <t>Interactions</t>
-  </si>
-  <si>
-    <t>persuasion_self_cw:barriers_self_cw</t>
-  </si>
-  <si>
-    <t>[ 0.65,  1.63]</t>
-  </si>
-  <si>
-    <t>[ 0.96,  1.11]</t>
-  </si>
-  <si>
-    <t>[  0.93,   1.02]</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.08,  0.07]</t>
-  </si>
-  <si>
-    <t>[0.38,     1.39]</t>
-  </si>
-  <si>
-    <t>barriers_self_cw:pressure_self_cw</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>[ 0.09,  1.21]</t>
-  </si>
-  <si>
-    <t>[ 0.75,  1.20]</t>
-  </si>
-  <si>
-    <t>[  0.81,   1.14]</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>[-0.47,  0.20]</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>[0.22,    13.05]</t>
-  </si>
-  <si>
-    <t>barriers_self_cw:pushing_self_cw</t>
-  </si>
-  <si>
-    <t>2.50*</t>
-  </si>
-  <si>
-    <t>[ 1.14,  6.03]</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[ 0.85,  1.05]</t>
-  </si>
-  <si>
-    <t>[  0.95,   1.09]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[-0.02,  0.18]</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>[0.27,     1.37]</t>
-  </si>
-  <si>
-    <t>persuasion_self_cw:facilitators_self_cw</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>[ 0.87,  2.10]</t>
-  </si>
-  <si>
-    <t>[ 0.96,  1.09]</t>
-  </si>
-  <si>
-    <t>[  0.95,   1.04]</t>
-  </si>
-  <si>
-    <t>[-0.06,  0.06]</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>[0.48,     1.56]</t>
-  </si>
-  <si>
-    <t>pressure_self_cw:facilitators_self_cw</t>
-  </si>
-  <si>
-    <t>[ 0.18,  4.87]</t>
-  </si>
-  <si>
-    <t>[ 0.73,  1.18]</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>[  0.69,   1.14]</t>
-  </si>
-  <si>
-    <t>[-0.24,  0.31]</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>[0.22,    45.77]</t>
-  </si>
-  <si>
-    <t>pushing_self_cw:facilitators_self_cw</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>[ 0.77,  3.92]</t>
-  </si>
-  <si>
-    <t>[ 0.88,  1.04]</t>
-  </si>
-  <si>
-    <t>[  0.96,   1.09]</t>
-  </si>
-  <si>
-    <t>[-0.08,  0.13]</t>
-  </si>
-  <si>
-    <t>[0.32,     2.07]</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>[1.23, 2.23]</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>[0.25, 0.43]</t>
-  </si>
-  <si>
-    <t>[0.26, 0.45]</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>[0.49, 0.81]</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>[1.64, 4.08]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[0.01, 0.61]</t>
-  </si>
-  <si>
-    <t>[0.03, 0.14]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.01, 0.09]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>[0.06, 1.45]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.03, 0.66]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.01, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.10]</t>
-  </si>
-  <si>
-    <t>[0.09, 1.54]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>[0.02, 2.15]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.33]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.20]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>[0.61, 4.75]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>[0.04, 2.37]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.00, 0.29]</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>[0.14, 4.52]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>[0.07, 1.53]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.20]</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>[0.03, 1.53]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>[0.03, 1.23]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.19]</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>[0.02, 1.45]</t>
-  </si>
-  <si>
-    <t>sd(barriers_self_cw)</t>
-  </si>
-  <si>
-    <t>[1.10, 2.08]</t>
-  </si>
-  <si>
-    <t>[0.14, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.06, 0.20]</t>
-  </si>
-  <si>
-    <t>[0.23, 0.43]</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>[0.08, 2.66]</t>
-  </si>
-  <si>
-    <t>sd(facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>[0.84, 1.95]</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>[0.19, 0.39]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.16]</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>[0.22, 2.73]</t>
-  </si>
-  <si>
-    <t>sd(persuasion_self_cw:barriers_self_cw)</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>[0.05, 1.26]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.03, 1.61]</t>
-  </si>
-  <si>
-    <t>sd(barriers_self_cw:pressure_self_cw)</t>
-  </si>
-  <si>
-    <t>[0.03, 2.58]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.01, 0.42]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.31]</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>[0.08, 0.85]</t>
-  </si>
-  <si>
-    <t>[0.04, 3.40]</t>
-  </si>
-  <si>
-    <t>sd(barriers_self_cw:pushing_self_cw)</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>[0.38, 2.39]</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[0.05, 0.26]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[0.08, 1.94]</t>
-  </si>
-  <si>
-    <t>sd(persuasion_self_cw:facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>[0.11, 1.23]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>[0.02, 1.15]</t>
-  </si>
-  <si>
-    <t>sd(pressure_self_cw:facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>[0.10, 4.28]</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[0.02, 0.62]</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>[0.01, 0.55]</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>[0.34, 5.20]</t>
-  </si>
-  <si>
-    <t>sd(pushing_self_cw:facilitators_self_cw)</t>
-  </si>
-  <si>
-    <t>[0.08, 2.45]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.26]</t>
-  </si>
-  <si>
-    <t>[0.06, 2.36]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>[0.59, 0.65]</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>[0.51, 0.55]</t>
-  </si>
-  <si>
-    <t>[0.82, 0.88]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Zero Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.79,  6.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.01***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[42.13, 59.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.06***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[108.16, 139.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.58,  4.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12,     1.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.41,  2.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04,  0.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.36,     0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.12,  1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.82,     2.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.39,  2.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.78,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.87,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.16,  0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.40,    63.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.85,  5.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.90,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.18,  0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.29,    13.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.77,  2.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.96,   1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06,  0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.99,     2.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.13,  2.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.96,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.02,  0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.45,     1.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.55,  1.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.87,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.11,  0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.37,     7.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,  2.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.13,  1.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.94,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.25,  0.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.34,     3.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily facilitators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.68,  1.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.06,  1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05,  0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.30,     3.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily wear time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.27,  4.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.75,  1.48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.69,   1.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.47,  0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.24,   116.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.38,  5.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.61,   1.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.18,  1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.43,   277.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.03,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.29,  1.58]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.77,   1.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.67,  0.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.54, 15556.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.03,  1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.21,  1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   1.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.91,  0.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   144.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.20,  8.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.84,  2.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.69,   1.82]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.61,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02,   178.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.22,  9.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,  3.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.78,   2.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.90,  0.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,     1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.30,  0.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,  1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   0.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.65, -0.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07,     5.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean facilitators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.89,   1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.18,  0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.18,     3.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean wear time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persuasion_self_cw:barriers_self_cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.93,   1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.08,  0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.38,     1.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barriers_self_cw:pressure_self_cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.09,  1.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.75,  1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.81,   1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.47,  0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.22,    13.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barriers_self_cw:pushing_self_cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.14,  6.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.85,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.95,   1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.02,  0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.27,     1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persuasion_self_cw:facilitators_self_cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  2.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.95,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06,  0.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,     1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure_self_cw:facilitators_self_cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.18,  4.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,  1.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.69,   1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.24,  0.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.22,    45.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing_self_cw:facilitators_self_cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.77,  3.92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.96,   1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.08,  0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.32,     2.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.23, 2.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25, 0.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.26, 0.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49, 0.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.64, 4.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06, 1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.66]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09, 1.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 2.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.61, 4.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 2.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14, 4.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 1.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(barriers_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.10, 2.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14, 0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06, 0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08, 2.66]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84, 1.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.19, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.22, 2.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(persuasion_self_cw:barriers_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 1.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 1.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(barriers_self_cw:pressure_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 2.58]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08, 0.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 3.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(barriers_self_cw:pushing_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.38, 2.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08, 1.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(persuasion_self_cw:facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.11, 1.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(pressure_self_cw:facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.10, 4.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.34, 5.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(pushing_self_cw:facilitators_self_cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08, 2.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06, 2.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.59, 0.65]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.51, 0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.82, 0.88]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1174,30 +1167,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <i/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1209,28 +1196,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1243,44 +1222,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1562,77 +1517,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1654,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1724,43 +1664,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1787,15 +1727,15 @@
       <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1829,8 +1769,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1839,7 +1779,7 @@
       <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1864,11 +1804,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1899,8 +1839,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1927,15 +1867,15 @@
       <c r="I10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1969,8 +1909,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2004,8 +1944,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="1"/>
@@ -2019,8 +1959,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="1"/>
@@ -2034,8 +1974,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2069,8 +2009,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
+    <row r="16">
+      <c r="A16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2104,8 +2044,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="1"/>
@@ -2123,43 +2063,43 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
+    <row r="18">
+      <c r="A18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2193,8 +2133,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2228,8 +2168,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+    <row r="21">
+      <c r="A21" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2263,8 +2203,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2298,8 +2238,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2333,8 +2273,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
+    <row r="24">
+      <c r="A24" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2368,8 +2308,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2403,8 +2343,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2438,8 +2378,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B27" s="1"/>
@@ -2457,43 +2397,43 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="10" t="s">
+    <row r="28">
+      <c r="A28" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="6" t="s">
+    <row r="29">
+      <c r="A29" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2527,8 +2467,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
+    <row r="30">
+      <c r="A30" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2562,8 +2502,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2597,8 +2537,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="6" t="s">
+    <row r="32">
+      <c r="A32" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2632,8 +2572,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="6" t="s">
+    <row r="33">
+      <c r="A33" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2667,8 +2607,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="6" t="s">
+    <row r="34">
+      <c r="A34" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2702,43 +2642,43 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="10" t="s">
+    <row r="35">
+      <c r="A35" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="6" t="s">
+    <row r="36">
+      <c r="A36" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2772,8 +2712,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
+    <row r="37">
+      <c r="A37" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2807,8 +2747,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="6" t="s">
+    <row r="38">
+      <c r="A38" s="7" t="s">
         <v>274</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2842,8 +2782,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="6" t="s">
+    <row r="39">
+      <c r="A39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2877,8 +2817,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="6" t="s">
+    <row r="40">
+      <c r="A40" s="7" t="s">
         <v>290</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2912,8 +2852,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="6" t="s">
+    <row r="41">
+      <c r="A41" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2947,8 +2887,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="6" t="s">
+    <row r="42">
+      <c r="A42" s="7" t="s">
         <v>308</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2982,8 +2922,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="6" t="s">
+    <row r="43">
+      <c r="A43" s="7" t="s">
         <v>314</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3017,8 +2957,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="6" t="s">
+    <row r="44">
+      <c r="A44" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3052,8 +2992,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="6" t="s">
+    <row r="45">
+      <c r="A45" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3087,8 +3027,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="6" t="s">
+    <row r="46">
+      <c r="A46" s="7" t="s">
         <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3122,8 +3062,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="6" t="s">
+    <row r="47">
+      <c r="A47" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3157,8 +3097,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="6" t="s">
+    <row r="48">
+      <c r="A48" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3192,8 +3132,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49" s="6" t="s">
+    <row r="49">
+      <c r="A49" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3227,8 +3167,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" s="6" t="s">
+    <row r="50">
+      <c r="A50" s="7" t="s">
         <v>367</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3262,43 +3202,43 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51" s="10" t="s">
+    <row r="51">
+      <c r="A51" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52" s="7" t="s">
+    <row r="52">
+      <c r="A52" s="8" t="s">
         <v>373</v>
       </c>
       <c r="B52" s="4"/>
@@ -3324,63 +3264,63 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
+    <row r="53">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A51:K51"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A51:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>